--- a/app/trasposiciones/download/ATrasponer.xlsx
+++ b/app/trasposiciones/download/ATrasponer.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet01" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -439,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,116 +526,277 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-24979.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-29056.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-3293.29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>017000</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-2148.26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5013000</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5494.86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-8968.219999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-5205.61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-136.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>017000</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-372.97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5042034</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>33947.94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5046000</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>017000</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2521.23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5058000</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3429.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5071000</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>28767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5075000</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-28767.17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5075000</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>28767.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A9:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5011000</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>010900</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-4659.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5013000</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>010900</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5494.86</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5021000</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>010900</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-835.47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5053000</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>010300</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>-48520.65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5053000</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>011900</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>48520.65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/app/trasposiciones/download/ATrasponer.xlsx
+++ b/app/trasposiciones/download/ATrasponer.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,11 +573,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>011300</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-3293.29</v>
+        <v>-5613.97</v>
       </c>
     </row>
     <row r="12">
@@ -591,11 +591,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>017000</t>
+          <t>011300</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-2148.26</v>
+        <v>-3293.29</v>
       </c>
     </row>
     <row r="13">
@@ -605,15 +605,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5013000</v>
+        <v>5011000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>010900</t>
+          <t>017000</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5494.86</v>
+        <v>-2148.26</v>
       </c>
     </row>
     <row r="14">
@@ -623,15 +623,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5021000</v>
+        <v>5013000</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>010400</t>
+          <t>010900</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-8968.219999999999</v>
+        <v>5494.86</v>
       </c>
     </row>
     <row r="15">
@@ -645,11 +645,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>010900</t>
+          <t>010400</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-5205.61</v>
+        <v>-8968.219999999999</v>
       </c>
     </row>
     <row r="16">
@@ -663,11 +663,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>011300</t>
+          <t>010900</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-136.01</v>
+        <v>-5205.61</v>
       </c>
     </row>
     <row r="17">
@@ -681,11 +681,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>017000</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-372.97</v>
+        <v>-2601.73</v>
       </c>
     </row>
     <row r="18">
@@ -695,15 +695,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5042034</v>
+        <v>5021000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>010400</t>
+          <t>011300</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33947.94</v>
+        <v>-136.01</v>
       </c>
     </row>
     <row r="19">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5046000</v>
+        <v>5021000</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2521.23</v>
+        <v>-372.97</v>
       </c>
     </row>
     <row r="20">
@@ -731,15 +731,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5058000</v>
+        <v>5042034</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>011300</t>
+          <t>010400</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3429.3</v>
+        <v>33947.94</v>
       </c>
     </row>
     <row r="21">
@@ -749,15 +749,15 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5071000</v>
+        <v>5046000</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>010900</t>
+          <t>017000</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28767</v>
+        <v>2521.23</v>
       </c>
     </row>
     <row r="22">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5075000</v>
+        <v>5053000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-28767.17</v>
+        <v>-48520.65</v>
       </c>
     </row>
     <row r="23">
@@ -785,14 +785,104 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>5053000</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>48520.65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5058000</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3429.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5063000</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>011200</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8215.700000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5071000</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>28767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>5075000</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-28767.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5075000</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>011300</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>28767.17</v>
       </c>
     </row>

--- a/app/trasposiciones/download/ATrasponer.xlsx
+++ b/app/trasposiciones/download/ATrasponer.xlsx
@@ -1,97 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\YESSICA\INFORMACIÓN SOLICITADA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A48E11C-7C86-4824-ABE3-5DFFF67663F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Importación de líneas de transacción presupuestal</t>
-  </si>
-  <si>
-    <t>Tipo de Transacción</t>
-  </si>
-  <si>
-    <t>TRASP</t>
-  </si>
-  <si>
-    <t>Trasposición de Fondos</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Intendencia Departamental Maldonado</t>
-  </si>
-  <si>
-    <t>Ejercicio</t>
-  </si>
-  <si>
-    <t>Requerido, Texto 10 Caracteres</t>
-  </si>
-  <si>
-    <t>Rubro</t>
-  </si>
-  <si>
-    <t>Requerido, Texto 9 Caracteres</t>
-  </si>
-  <si>
-    <t>Programa</t>
-  </si>
-  <si>
-    <t>Requerido, Texto 16 Caracteres</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>Requerido, Numérico con 2 decimales</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,23 +58,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,63 +433,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Importación de líneas de transacción presupuestal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Transacción</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TRASP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Trasposición de Fondos</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intendencia Departamental Maldonado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ejercicio</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Rubro</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Requerido, Texto 10 Caracteres</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Requerido, Texto 9 Caracteres</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Requerido, Texto 16 Caracteres</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Requerido, Numérico con 2 decimales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5053000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-26679.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5053000</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>26679.92</v>
       </c>
     </row>
   </sheetData>

--- a/app/trasposiciones/download/ATrasponer.xlsx
+++ b/app/trasposiciones/download/ATrasponer.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,15 +533,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5053000</v>
+        <v>5011000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>010300</t>
+          <t>010900</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-26679.92</v>
+        <v>-2355.6</v>
       </c>
     </row>
     <row r="10">
@@ -551,15 +551,267 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-37449.96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5011000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>016000</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-2044.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5013000</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5495.16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-3139.56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-17721.26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5021000</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>016000</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-994.92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5031000</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5031000</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-25445.48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5031000</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>016000</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>5053000</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>010900</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>26679.92</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-3575.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5053000</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>016000</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3575.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5057000</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-10000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5057000</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>80616.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5063000</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>016000</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3039.18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5099000</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>016000</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
